--- a/data/excel/median_income_percent_imputed.xlsx
+++ b/data/excel/median_income_percent_imputed.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Texas A&amp;M\Senior\Fall 2021\CSCE 447 - Data Visualization\wage-gap\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58E73DEE-1CD0-41F4-812B-679398BBED2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0F4865-EB68-4854-9A64-6784A74881BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-21864" yWindow="1128" windowWidth="21600" windowHeight="11832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="median_income_percent_imputed" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -880,10 +880,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1014,318 +1016,6 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G12">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G13">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G14">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G15">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G16">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G17">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G18">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="B19">
-        <v>0.1</v>
-      </c>
-      <c r="C19">
-        <v>28.4</v>
-      </c>
-      <c r="D19">
-        <v>0.1</v>
-      </c>
-      <c r="E19">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="F19">
-        <v>0.1</v>
-      </c>
-      <c r="G19">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="B20">
-        <v>0.1</v>
-      </c>
-      <c r="C20">
-        <v>28.1</v>
-      </c>
-      <c r="D20">
-        <v>0.1</v>
-      </c>
-      <c r="E20">
-        <v>19</v>
-      </c>
-      <c r="F20">
-        <v>0.1</v>
-      </c>
-      <c r="G20">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>73.3</v>
-      </c>
-      <c r="B21">
-        <v>0.1</v>
-      </c>
-      <c r="C21">
-        <v>27.7</v>
-      </c>
-      <c r="D21">
-        <v>0.1</v>
-      </c>
-      <c r="E21">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="F21">
-        <v>0.1</v>
-      </c>
-      <c r="G21">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G22">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G23">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G24">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G25">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G26">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G27">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G28">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="B29">
-        <v>0.1</v>
-      </c>
-      <c r="C29">
-        <v>28.4</v>
-      </c>
-      <c r="D29">
-        <v>0.1</v>
-      </c>
-      <c r="E29">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="F29">
-        <v>0.1</v>
-      </c>
-      <c r="G29">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="B30">
-        <v>0.1</v>
-      </c>
-      <c r="C30">
-        <v>28.1</v>
-      </c>
-      <c r="D30">
-        <v>0.1</v>
-      </c>
-      <c r="E30">
-        <v>19</v>
-      </c>
-      <c r="F30">
-        <v>0.1</v>
-      </c>
-      <c r="G30">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>73.3</v>
-      </c>
-      <c r="B31">
-        <v>0.1</v>
-      </c>
-      <c r="C31">
-        <v>27.7</v>
-      </c>
-      <c r="D31">
-        <v>0.1</v>
-      </c>
-      <c r="E31">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="F31">
-        <v>0.1</v>
-      </c>
-      <c r="G31">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G32">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G33">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G34">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G35">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G36">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G37">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G38">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="B39">
-        <v>0.1</v>
-      </c>
-      <c r="C39">
-        <v>28.4</v>
-      </c>
-      <c r="D39">
-        <v>0.1</v>
-      </c>
-      <c r="E39">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="F39">
-        <v>0.1</v>
-      </c>
-      <c r="G39">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="B40">
-        <v>0.1</v>
-      </c>
-      <c r="C40">
-        <v>28.1</v>
-      </c>
-      <c r="D40">
-        <v>0.1</v>
-      </c>
-      <c r="E40">
-        <v>19</v>
-      </c>
-      <c r="F40">
-        <v>0.1</v>
-      </c>
-      <c r="G40">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>73.3</v>
-      </c>
-      <c r="B41">
-        <v>0.1</v>
-      </c>
-      <c r="C41">
-        <v>27.7</v>
-      </c>
-      <c r="D41">
-        <v>0.1</v>
-      </c>
-      <c r="E41">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="F41">
-        <v>0.1</v>
-      </c>
-      <c r="G41">
-        <v>2019</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
